--- a/target/test-classes/Excel Files/TestData.xlsx
+++ b/target/test-classes/Excel Files/TestData.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22844848-32C1-4C71-AC5B-06F3FFF09F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A9A081-B790-49A9-A1EF-95441315B598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VerifySignup" sheetId="4" r:id="rId1"/>
-    <sheet name="VerifyLogin" sheetId="5" r:id="rId2"/>
+    <sheet name="Login" sheetId="5" r:id="rId1"/>
+    <sheet name="Signup" sheetId="8" r:id="rId2"/>
+    <sheet name="VerifySignup" sheetId="4" r:id="rId3"/>
+    <sheet name="VerifyLogin" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Password</t>
   </si>
@@ -89,9 +91,6 @@
     <t>chandudemo@malinator.com</t>
   </si>
   <si>
-    <t>919014676533</t>
-  </si>
-  <si>
     <t>Andhra Pradesh</t>
   </si>
   <si>
@@ -104,9 +103,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Nov</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -119,60 +115,6 @@
     <t>TimeZone</t>
   </si>
   <si>
-    <t>InviteEmail</t>
-  </si>
-  <si>
-    <t>InviteMessage</t>
-  </si>
-  <si>
-    <t>Child FirstName</t>
-  </si>
-  <si>
-    <t>Child LastName</t>
-  </si>
-  <si>
-    <t>Child Year</t>
-  </si>
-  <si>
-    <t>Child Month</t>
-  </si>
-  <si>
-    <t>Child Date</t>
-  </si>
-  <si>
-    <t>Child Gender</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test Message by Automation</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Family Name</t>
-  </si>
-  <si>
-    <t>Group Name</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>test@test.com</t>
   </si>
   <si>
@@ -198,6 +140,15 @@
   </si>
   <si>
     <t>9014676533</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>9014678533</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -559,11 +510,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECE2C5D-E42B-43DB-854F-A7DD0CCB2B64}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4">
+        <v>32874</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7F2C3501-9CFE-4E3D-88DF-89E429696CB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -629,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -638,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -667,13 +824,13 @@
         <v>33183</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>18</v>
@@ -685,28 +842,28 @@
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -718,12 +875,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3F690-52C7-47AC-A92D-29A9C87007D3}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,21 +888,9 @@
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -755,165 +900,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4">
-        <v>33183</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DF5FDD64-95B4-47E9-8166-0CD5EAE21E74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
